--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value809.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value809.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.876936192536726</v>
+        <v>1.102614641189575</v>
       </c>
       <c r="B1">
-        <v>2.714483407620956</v>
+        <v>1.639281988143921</v>
       </c>
       <c r="C1">
-        <v>2.073590414571544</v>
+        <v>4.62448787689209</v>
       </c>
       <c r="D1">
-        <v>1.960735788724452</v>
+        <v>0.4045725464820862</v>
       </c>
       <c r="E1">
-        <v>1.794964675161458</v>
+        <v>0.4551762342453003</v>
       </c>
     </row>
   </sheetData>
